--- a/biology/Zoologie/Diaulax/Diaulax.xlsx
+++ b/biology/Zoologie/Diaulax/Diaulax.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Diaulacidae
 Diaulax est un genre éteint de crabes du Crétacé, le seul de la famille également éteinte des Diaulacidae.
@@ -512,7 +524,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>† Diaulax carteriana Bell 1863
 † Diaulax millerae Bishop, 1992
@@ -546,7 +560,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Bell, 1863 : A Monograph of the fossil malacostracous Crustacea of Great Britain. Part II. Crustacea of the Gault and Greensand. Monograph of the Palaeontographical Society, vol. 14, p. 1-40.
 (en) Wright &amp; Collins, 1972 : British Cretaceous Crabs. Palaeontographical Society Monograph, vol. 126, n. 533, p. 1–113.</t>
@@ -577,7 +593,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) De Grave &amp; al., 2009 : A Classification of Living and Fossil Genera of Decapod Crustaceans. Raffles Bulletin of Zoology Supplement, n. 21, p. 1-109.</t>
         </is>
